--- a/output/0/tRNA-Asn-GTT-2-6.xlsx
+++ b/output/0/tRNA-Asn-GTT-2-6.xlsx
@@ -12,195 +12,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
   <si>
     <t>chr19</t>
   </si>
   <si>
-    <t>1383570</t>
-  </si>
-  <si>
-    <t>1383593</t>
+    <t>1383362</t>
+  </si>
+  <si>
+    <t>1383385</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1383365</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>CCTGGTTCGATCCCGGGTTT</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
+    <t>95% (76)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>1383590</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>GCGCAATCGGTTAGCGCGTT</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+    <t>1383382</t>
+  </si>
+  <si>
+    <t>CCGAAACCCGGGATCGAACC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>38% (46)</t>
+  </si>
+  <si>
+    <t>59% (49)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1383363</t>
+  </si>
+  <si>
+    <t>1383386</t>
+  </si>
+  <si>
+    <t>1383383</t>
+  </si>
+  <si>
+    <t>CGAAACCCGGGATCGAACCA</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>92% (65)</t>
+  </si>
+  <si>
+    <t>37% (39)</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>1383368</t>
+  </si>
+  <si>
+    <t>1383391</t>
+  </si>
+  <si>
+    <t>1383371</t>
+  </si>
+  <si>
+    <t>AAGGTCCCTGGTTCGATCCC</t>
+  </si>
+  <si>
+    <t>74% (57)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1383369</t>
+  </si>
+  <si>
+    <t>1383392</t>
+  </si>
+  <si>
+    <t>1383372</t>
+  </si>
+  <si>
+    <t>AAAGGTCCCTGGTTCGATCC</t>
+  </si>
+  <si>
+    <t>40% (47)</t>
+  </si>
+  <si>
+    <t>76% (58)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1383380</t>
+  </si>
+  <si>
+    <t>1383403</t>
+  </si>
+  <si>
+    <t>ACTGAAGATCTAAAGGTCCC</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>69% (56)</t>
+  </si>
+  <si>
+    <t>5% (17)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1383387</t>
+  </si>
+  <si>
+    <t>1383410</t>
+  </si>
+  <si>
+    <t>1383390</t>
+  </si>
+  <si>
+    <t>GCGTTAGACTGAAGATCTAA</t>
+  </si>
+  <si>
+    <t>63% (54)</t>
+  </si>
+  <si>
+    <t>7% (19)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1383409</t>
+  </si>
+  <si>
+    <t>1383432</t>
+  </si>
+  <si>
+    <t>1383429</t>
+  </si>
+  <si>
+    <t>CTCTCCCAACTGAGCTATTT</t>
+  </si>
+  <si>
+    <t>7% (28)</t>
+  </si>
+  <si>
+    <t>31% (36)</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>1383413</t>
+  </si>
+  <si>
+    <t>1383436</t>
+  </si>
+  <si>
+    <t>1383433</t>
+  </si>
+  <si>
+    <t>CCCAACTGAGCTATTTCGGC</t>
   </si>
   <si>
     <t>18% (37)</t>
   </si>
   <si>
-    <t>100% (101)</t>
+    <t>2% (11)</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>1383585</t>
-  </si>
-  <si>
-    <t>1383608</t>
-  </si>
-  <si>
-    <t>1383605</t>
-  </si>
-  <si>
-    <t>GCGTTCGGCTGTTAACCGAA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>92% (65)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>1383589</t>
-  </si>
-  <si>
-    <t>1383612</t>
-  </si>
-  <si>
-    <t>1383609</t>
-  </si>
-  <si>
-    <t>TCGGCTGTTAACCGAAAGGT</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>69% (56)</t>
-  </si>
-  <si>
-    <t>74% (57)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>1383592</t>
-  </si>
-  <si>
-    <t>1383615</t>
-  </si>
-  <si>
-    <t>GCTGTTAACCGAAAGGTTGG</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>20% (30)</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1383600</t>
-  </si>
-  <si>
-    <t>1383623</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1383603</t>
-  </si>
-  <si>
-    <t>GGCTCGAACCACCAACCTTT</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>31% (36)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>1383631</t>
-  </si>
-  <si>
-    <t>1383628</t>
-  </si>
-  <si>
-    <t>TTGGTGGTTCGAGCCCACCC</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1383632</t>
-  </si>
-  <si>
-    <t>1383629</t>
-  </si>
-  <si>
-    <t>TGGTGGTTCGAGCCCACCCA</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>80% (61)</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>76</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>1383416</t>
+  </si>
+  <si>
+    <t>CCAGCCGAAATAGCTCAGTT</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>48% (44)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1383414</t>
+  </si>
+  <si>
+    <t>1383437</t>
+  </si>
+  <si>
+    <t>1383434</t>
+  </si>
+  <si>
+    <t>CCAACTGAGCTATTTCGGCT</t>
+  </si>
+  <si>
+    <t>18% (29)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1383417</t>
+  </si>
+  <si>
+    <t>CCCAGCCGAAATAGCTCAGT</t>
+  </si>
+  <si>
+    <t>35% (45)</t>
+  </si>
+  <si>
+    <t>50% (45)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -245,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -268,10 +367,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -315,52 +414,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -374,52 +473,52 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -433,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -448,7 +547,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -460,25 +559,25 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>14</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -492,34 +591,34 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
         <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
       </c>
       <c r="L5" t="s">
         <v>9</v>
@@ -528,16 +627,16 @@
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -551,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -563,40 +662,40 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
         <v>51</v>
       </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>31</v>
       </c>
       <c r="P6" t="s">
         <v>53</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -610,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -622,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -640,22 +739,22 @@
         <v>57</v>
       </c>
       <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
         <v>58</v>
       </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>59</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>60</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>62</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -669,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -696,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -705,16 +804,16 @@
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s">
         <v>13</v>
       </c>
       <c r="Q8" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
@@ -728,22 +827,22 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -755,25 +854,25 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
@@ -787,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -799,10 +898,10 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -814,25 +913,25 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="R10" t="s">
         <v>15</v>
@@ -846,22 +945,22 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -873,25 +972,25 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="R11" t="s">
         <v>15</v>
@@ -905,22 +1004,22 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -932,148 +1031,30 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="R12" t="s">
         <v>15</v>
       </c>
       <c r="S12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="s">
         <v>3</v>
       </c>
     </row>
